--- a/LevelDesign_excel/Level6.xlsx
+++ b/LevelDesign_excel/Level6.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:AL51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J48" sqref="A1:AF51"/>
+      <selection activeCell="Q25" sqref="A1:AF51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,8 +782,8 @@
       <c r="L3" s="4">
         <v>9</v>
       </c>
-      <c r="M3" s="4">
-        <v>9</v>
+      <c r="M3" s="10">
+        <v>7</v>
       </c>
       <c r="N3" s="4">
         <v>9</v>
@@ -803,23 +803,23 @@
       <c r="S3" s="4">
         <v>9</v>
       </c>
-      <c r="T3" s="4">
-        <v>9</v>
-      </c>
-      <c r="U3" s="4">
-        <v>9</v>
-      </c>
-      <c r="V3" s="4">
-        <v>9</v>
-      </c>
-      <c r="W3" s="4">
-        <v>9</v>
-      </c>
-      <c r="X3" s="10">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>9</v>
+      <c r="T3" s="7">
+        <v>5</v>
+      </c>
+      <c r="U3" s="13">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="9">
+        <v>14</v>
+      </c>
+      <c r="X3" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
       </c>
       <c r="Z3" s="4">
         <v>9</v>
@@ -827,17 +827,17 @@
       <c r="AA3" s="4">
         <v>9</v>
       </c>
-      <c r="AB3" s="4">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>5</v>
+      <c r="AB3" s="9">
+        <v>14</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3" s="13">
         <v>1</v>
@@ -889,8 +889,8 @@
       <c r="M4" s="4">
         <v>9</v>
       </c>
-      <c r="N4" s="4">
-        <v>9</v>
+      <c r="N4" s="15">
+        <v>6</v>
       </c>
       <c r="O4" s="4">
         <v>9</v>
@@ -910,20 +910,20 @@
       <c r="T4" s="4">
         <v>9</v>
       </c>
-      <c r="U4" s="4">
-        <v>9</v>
-      </c>
-      <c r="V4" s="4">
-        <v>9</v>
-      </c>
-      <c r="W4" s="4">
-        <v>9</v>
+      <c r="U4" s="13">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="9">
+        <v>14</v>
       </c>
       <c r="X4" s="4">
         <v>9</v>
       </c>
-      <c r="Y4" s="15">
-        <v>6</v>
+      <c r="Y4">
+        <v>0</v>
       </c>
       <c r="Z4" s="4">
         <v>9</v>
@@ -931,17 +931,17 @@
       <c r="AA4" s="4">
         <v>9</v>
       </c>
-      <c r="AB4" s="4">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>9</v>
+      <c r="AB4" s="9">
+        <v>14</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4" s="13">
         <v>1</v>
@@ -990,11 +990,11 @@
       <c r="L5" s="4">
         <v>9</v>
       </c>
-      <c r="M5" s="4">
-        <v>9</v>
-      </c>
-      <c r="N5" s="4">
-        <v>9</v>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
+        <v>4</v>
       </c>
       <c r="O5" s="4">
         <v>9</v>
@@ -1014,29 +1014,29 @@
       <c r="T5" s="4">
         <v>9</v>
       </c>
-      <c r="U5" s="4">
-        <v>9</v>
-      </c>
-      <c r="V5" s="4">
-        <v>9</v>
-      </c>
-      <c r="W5" s="4">
-        <v>9</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>9</v>
+      <c r="U5" s="13">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>1</v>
       </c>
       <c r="AC5" s="4">
         <v>9</v>
@@ -1118,38 +1118,38 @@
       <c r="T6" s="4">
         <v>9</v>
       </c>
-      <c r="U6" s="4">
-        <v>9</v>
-      </c>
-      <c r="V6" s="4">
-        <v>9</v>
-      </c>
-      <c r="W6" s="4">
-        <v>9</v>
-      </c>
-      <c r="X6" s="4">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>9</v>
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="9">
+        <v>14</v>
+      </c>
+      <c r="X6" s="9">
+        <v>14</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>4</v>
       </c>
       <c r="AD6" s="4">
         <v>9</v>
       </c>
-      <c r="AE6" s="4">
-        <v>9</v>
+      <c r="AE6" s="12">
+        <v>4</v>
       </c>
       <c r="AF6" s="13">
         <v>1</v>
@@ -1222,38 +1222,38 @@
       <c r="T7" s="4">
         <v>9</v>
       </c>
-      <c r="U7" s="4">
-        <v>9</v>
-      </c>
-      <c r="V7" s="4">
-        <v>9</v>
-      </c>
-      <c r="W7" s="4">
-        <v>9</v>
-      </c>
-      <c r="X7" s="4">
-        <v>9</v>
-      </c>
-      <c r="Y7" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>9</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>9</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>9</v>
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13">
+        <v>1</v>
+      </c>
+      <c r="W7" s="13">
+        <v>1</v>
+      </c>
+      <c r="X7" s="9">
+        <v>14</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>14</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>14</v>
       </c>
       <c r="AF7" s="13">
         <v>1</v>
@@ -1302,8 +1302,8 @@
       <c r="L8" s="12">
         <v>4</v>
       </c>
-      <c r="M8" s="4">
-        <v>9</v>
+      <c r="M8" s="15">
+        <v>6</v>
       </c>
       <c r="N8" s="4">
         <v>9</v>
@@ -1326,38 +1326,38 @@
       <c r="T8" s="4">
         <v>9</v>
       </c>
-      <c r="U8" s="4">
-        <v>9</v>
-      </c>
-      <c r="V8" s="4">
-        <v>9</v>
-      </c>
-      <c r="W8" s="4">
-        <v>9</v>
-      </c>
-      <c r="X8" s="15">
-        <v>6</v>
-      </c>
-      <c r="Y8" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z8" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA8" s="4">
-        <v>9</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>9</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>9</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>9</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>9</v>
+      <c r="U8" s="13">
+        <v>1</v>
+      </c>
+      <c r="V8" s="13">
+        <v>1</v>
+      </c>
+      <c r="W8" s="13">
+        <v>1</v>
+      </c>
+      <c r="X8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8" s="13">
         <v>1</v>
@@ -1430,38 +1430,38 @@
       <c r="T9" s="4">
         <v>9</v>
       </c>
-      <c r="U9" s="4">
-        <v>9</v>
-      </c>
-      <c r="V9" s="4">
-        <v>9</v>
-      </c>
-      <c r="W9" s="4">
-        <v>9</v>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>14</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
       </c>
       <c r="X9" s="4">
         <v>9</v>
       </c>
-      <c r="Y9" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>9</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>9</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>9</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>9</v>
+      <c r="Y9" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9" s="13">
         <v>1</v>
@@ -1578,8 +1578,8 @@
       <c r="B11" s="9">
         <v>14</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" s="4">
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1715,8 +1715,8 @@
       <c r="M12" s="13">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="N12" s="12">
+        <v>4</v>
       </c>
       <c r="O12" s="13">
         <v>1</v>
@@ -1730,8 +1730,8 @@
       <c r="R12" s="13">
         <v>1</v>
       </c>
-      <c r="S12">
-        <v>0</v>
+      <c r="S12" s="7">
+        <v>5</v>
       </c>
       <c r="T12" s="13">
         <v>1</v>
@@ -1834,8 +1834,8 @@
       <c r="R13" s="13">
         <v>1</v>
       </c>
-      <c r="S13">
-        <v>0</v>
+      <c r="S13" s="4">
+        <v>9</v>
       </c>
       <c r="T13" s="13">
         <v>1</v>
@@ -2410,8 +2410,8 @@
       <c r="B19" s="9">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" s="3">
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2428,8 +2428,8 @@
       <c r="H19" s="9">
         <v>14</v>
       </c>
-      <c r="I19">
-        <v>0</v>
+      <c r="I19" s="15">
+        <v>6</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2479,8 +2479,8 @@
       <c r="Y19" s="9">
         <v>14</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
+      <c r="Z19" s="10">
+        <v>7</v>
       </c>
       <c r="AA19" s="3">
         <v>2</v>
@@ -2707,8 +2707,8 @@
       <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="D22" s="4">
+        <v>9</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
@@ -2785,8 +2785,8 @@
       <c r="AC22" s="3">
         <v>2</v>
       </c>
-      <c r="AD22" s="9">
-        <v>14</v>
+      <c r="AD22">
+        <v>0</v>
       </c>
       <c r="AE22" s="3">
         <v>2</v>
@@ -2802,14 +2802,14 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="C23" s="4">
+        <v>9</v>
+      </c>
+      <c r="D23" s="9">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -2883,8 +2883,8 @@
       <c r="AC23" s="3">
         <v>2</v>
       </c>
-      <c r="AD23" s="9">
-        <v>14</v>
+      <c r="AD23">
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
         <v>2</v>
@@ -2903,8 +2903,8 @@
       <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="9">
-        <v>14</v>
+      <c r="D24" s="4">
+        <v>9</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
@@ -3076,8 +3076,8 @@
       <c r="AB25">
         <v>0</v>
       </c>
-      <c r="AC25" s="2">
-        <v>30</v>
+      <c r="AC25">
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -3174,8 +3174,8 @@
       <c r="AB26">
         <v>0</v>
       </c>
-      <c r="AC26">
-        <v>0</v>
+      <c r="AC26" s="2">
+        <v>30</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -3269,17 +3269,17 @@
       <c r="AA27" s="13">
         <v>1</v>
       </c>
-      <c r="AB27" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE27" s="9">
-        <v>14</v>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27" s="13">
         <v>1</v>
@@ -3367,17 +3367,17 @@
       <c r="AA28" s="13">
         <v>1</v>
       </c>
-      <c r="AB28" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE28" s="9">
-        <v>14</v>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28" s="13">
         <v>1</v>
@@ -3405,8 +3405,8 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
+      <c r="H29" s="12">
+        <v>4</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3465,17 +3465,17 @@
       <c r="AA29" s="13">
         <v>1</v>
       </c>
-      <c r="AB29" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC29" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD29" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE29" s="9">
-        <v>14</v>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>2</v>
       </c>
       <c r="AF29" s="13">
         <v>1</v>
@@ -3563,17 +3563,17 @@
       <c r="AA30" s="13">
         <v>1</v>
       </c>
-      <c r="AB30" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>2</v>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="15">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE30" s="15">
+        <v>6</v>
       </c>
       <c r="AF30" s="13">
         <v>1</v>
@@ -3664,14 +3664,14 @@
       <c r="AB31" s="3">
         <v>2</v>
       </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>2</v>
+      <c r="AC31" s="15">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="7">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>9</v>
       </c>
       <c r="AF31" s="13">
         <v>1</v>
@@ -3759,17 +3759,17 @@
       <c r="AA32" s="13">
         <v>1</v>
       </c>
-      <c r="AB32" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC32" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD32" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE32" s="9">
-        <v>14</v>
+      <c r="AB32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>9</v>
       </c>
       <c r="AF32" s="13">
         <v>1</v>
@@ -3857,17 +3857,17 @@
       <c r="AA33" s="13">
         <v>1</v>
       </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
+      <c r="AB33" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>9</v>
       </c>
       <c r="AF33" s="13">
         <v>1</v>
@@ -3955,17 +3955,17 @@
       <c r="AA34" s="13">
         <v>1</v>
       </c>
-      <c r="AB34" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC34" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD34" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE34" s="9">
-        <v>14</v>
+      <c r="AB34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>9</v>
       </c>
       <c r="AF34" s="13">
         <v>1</v>
@@ -4053,17 +4053,17 @@
       <c r="AA35" s="13">
         <v>1</v>
       </c>
-      <c r="AB35" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC35" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD35" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE35" s="9">
-        <v>14</v>
+      <c r="AB35" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>9</v>
       </c>
       <c r="AF35" s="13">
         <v>1</v>
@@ -4151,17 +4151,17 @@
       <c r="AA36" s="13">
         <v>1</v>
       </c>
-      <c r="AB36" s="9">
-        <v>14</v>
-      </c>
-      <c r="AC36" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD36" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE36" s="9">
-        <v>14</v>
+      <c r="AB36" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36" s="13">
         <v>1</v>
@@ -4249,14 +4249,14 @@
       <c r="AA37" s="13">
         <v>1</v>
       </c>
-      <c r="AB37" s="9">
-        <v>14</v>
+      <c r="AB37" s="3">
+        <v>2</v>
       </c>
       <c r="AC37" s="3">
         <v>2</v>
       </c>
-      <c r="AD37" s="3">
-        <v>2</v>
+      <c r="AD37">
+        <v>0</v>
       </c>
       <c r="AE37" s="3">
         <v>2</v>
@@ -4347,14 +4347,14 @@
       <c r="AA38" s="13">
         <v>1</v>
       </c>
-      <c r="AB38" s="9">
+      <c r="AB38" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="9">
         <v>14</v>
       </c>
-      <c r="AC38" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>2</v>
+      <c r="AD38" s="9">
+        <v>14</v>
       </c>
       <c r="AE38" s="3">
         <v>2</v>
@@ -4445,17 +4445,17 @@
       <c r="AA39" s="13">
         <v>1</v>
       </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD39" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE39" s="9">
-        <v>14</v>
+      <c r="AB39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>2</v>
       </c>
       <c r="AF39" s="13">
         <v>1</v>
@@ -4546,14 +4546,14 @@
       <c r="AB40" s="3">
         <v>2</v>
       </c>
-      <c r="AC40" s="3">
+      <c r="AC40" s="9">
+        <v>14</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>14</v>
+      </c>
+      <c r="AE40" s="3">
         <v>2</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="9">
-        <v>14</v>
       </c>
       <c r="AF40" s="13">
         <v>1</v>
@@ -4644,14 +4644,14 @@
       <c r="AB41" s="3">
         <v>2</v>
       </c>
-      <c r="AC41" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD41" s="9">
-        <v>14</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
+      <c r="AC41" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>2</v>
       </c>
       <c r="AF41" s="13">
         <v>1</v>
@@ -4739,17 +4739,17 @@
       <c r="AA42" s="13">
         <v>1</v>
       </c>
-      <c r="AB42" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC42" s="9">
-        <v>14</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>2</v>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>9</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42" s="13">
         <v>1</v>
@@ -4837,17 +4837,17 @@
       <c r="AA43" s="13">
         <v>1</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AB43" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC43" s="3">
         <v>2</v>
-      </c>
-      <c r="AC43" s="9">
-        <v>14</v>
       </c>
       <c r="AD43" s="3">
         <v>2</v>
       </c>
-      <c r="AE43" s="3">
-        <v>2</v>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43" s="13">
         <v>1</v>
@@ -4935,17 +4935,17 @@
       <c r="AA44" s="13">
         <v>1</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
         <v>2</v>
-      </c>
-      <c r="AC44" s="9">
-        <v>14</v>
       </c>
       <c r="AD44" s="3">
         <v>2</v>
       </c>
-      <c r="AE44" s="3">
-        <v>2</v>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44" s="13">
         <v>1</v>
@@ -5267,14 +5267,14 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
+      <c r="H48" s="13">
+        <v>1</v>
+      </c>
+      <c r="I48" s="13">
+        <v>1</v>
+      </c>
+      <c r="J48" s="13">
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5291,14 +5291,14 @@
       <c r="O48">
         <v>0</v>
       </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>1</v>
+      </c>
+      <c r="R48" s="13">
+        <v>1</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -5315,14 +5315,14 @@
       <c r="W48">
         <v>0</v>
       </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
+      <c r="X48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="13">
+        <v>1</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -5353,14 +5353,14 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5377,14 +5377,14 @@
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
+      <c r="L49" s="13">
+        <v>1</v>
+      </c>
+      <c r="M49" s="13">
+        <v>1</v>
+      </c>
+      <c r="N49" s="13">
+        <v>1</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -5401,14 +5401,14 @@
       <c r="S49">
         <v>0</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
+      <c r="T49" s="13">
+        <v>1</v>
+      </c>
+      <c r="U49" s="13">
+        <v>1</v>
+      </c>
+      <c r="V49" s="13">
+        <v>1</v>
       </c>
       <c r="W49">
         <v>0</v>
